--- a/Hardware/ARM.xlsx
+++ b/Hardware/ARM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEED8D8-BE7B-1946-945E-FE68044D7750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F5386-8264-C64D-A5EC-7BF56B378AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1938,9 +1938,11 @@
     <v>Powered by Refinitiv</v>
     <v>188.75</v>
     <v>49.82</v>
-    <v>2.0190000000000001</v>
-    <v>4.03</v>
-    <v>2.8652999999999998E-2</v>
+    <v>2.036</v>
+    <v>5.97</v>
+    <v>4.1262999999999994E-2</v>
+    <v>-0.83</v>
+    <v>-5.5089999999999991E-3</v>
     <v>USD</v>
     <v>Arm Holdings plc is engaged in operating a global computing platform. It architects, develops, and licenses IP solutions for CPUs, GPUs, NPUs and interconnect technologies, which is relied on by semiconductor companies and OEMs to develop their products. Its principal operations are the licensing, marketing, research and development of microprocessors, systems intellectual property (IP), graphics processing units, physical IP and associated systems IP, software, tools and other related services. Its primary product offerings are CPU products that address diverse performance, power, and cost requirements. Its complementary products, such as graphics processing units (GPUs) that accelerate the display of complex graphics onto a screen and can also be used for other mathematical applications, System IP, and compute platforms are also available as well as development tools and a software ecosystem to enable high-performance system-level creation for a range of devices and applications.</v>
     <v>7320</v>
@@ -1948,23 +1950,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>110 Fulbourn Road, CAMBRIDGE, CAMBRIDGESHIRE, CB1 9NJ GB</v>
-    <v>146.06</v>
+    <v>154.65</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45602.914618772658</v>
-    <v>141.01</v>
-    <v>151624640000</v>
+    <v>45604.041527407033</v>
+    <v>139.51</v>
+    <v>157881200000</v>
     <v>ARM HOLDINGS PLC</v>
     <v>ARM HOLDINGS PLC</v>
-    <v>143.72999999999999</v>
-    <v>363.60890000000001</v>
-    <v>140.65</v>
+    <v>140.0001</v>
+    <v>378.61270000000002</v>
     <v>144.68</v>
+    <v>150.65</v>
+    <v>149.82</v>
     <v>1048000000</v>
     <v>ARM</v>
     <v>ARM HOLDINGS PLC (XNAS:ARM)</v>
-    <v>14591</v>
-    <v>5119438</v>
+    <v>16365148</v>
+    <v>5395041</v>
     <v>2018</v>
   </rv>
   <rv s="1">
@@ -1992,6 +1995,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2011,6 +2016,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2027,7 +2033,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2038,13 +2044,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2107,13 +2116,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2156,6 +2171,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2163,6 +2181,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2863,14 +2884,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>144.68</v>
+        <v>150.65</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>38.269722362443211</v>
+        <v>39.84886420999495</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2910,14 +2931,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.8652999999999998E-2</v>
+        <v>4.1262999999999994E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>91.560772946859899</v>
+        <v>95.338888888888889</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2958,14 +2979,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>151624640000</v>
+        <v>157881200000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>9.6356370574070278E-3</v>
+        <v>9.2537933585506056E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3007,7 +3028,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.0190000000000001</v>
+        <v>2.036</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3040,7 +3061,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.66762167801610683</v>
+        <v>-0.68079325838281002</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/ARM.xlsx
+++ b/Hardware/ARM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F5386-8264-C64D-A5EC-7BF56B378AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01316F30-49A9-6847-82A2-C4E103D8A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -807,7 +807,7 @@
                   <c:v>3233000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3962000000</c:v>
+                  <c:v>3959000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4915000000</c:v>
@@ -1937,37 +1937,37 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>188.75</v>
-    <v>49.82</v>
-    <v>2.036</v>
-    <v>5.97</v>
-    <v>4.1262999999999994E-2</v>
-    <v>-0.83</v>
-    <v>-5.5089999999999991E-3</v>
+    <v>55.27</v>
+    <v>1.9830000000000001</v>
+    <v>4.4000000000000004</v>
+    <v>3.4199E-2</v>
+    <v>0.65</v>
+    <v>4.8849999999999996E-3</v>
     <v>USD</v>
     <v>Arm Holdings plc is engaged in operating a global computing platform. It architects, develops, and licenses IP solutions for CPUs, GPUs, NPUs and interconnect technologies, which is relied on by semiconductor companies and OEMs to develop their products. Its principal operations are the licensing, marketing, research and development of microprocessors, systems intellectual property (IP), graphics processing units, physical IP and associated systems IP, software, tools and other related services. Its primary product offerings are CPU products that address diverse performance, power, and cost requirements. Its complementary products, such as graphics processing units (GPUs) that accelerate the display of complex graphics onto a screen and can also be used for other mathematical applications, System IP, and compute platforms are also available as well as development tools and a software ecosystem to enable high-performance system-level creation for a range of devices and applications.</v>
-    <v>7320</v>
+    <v>7709</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>110 Fulbourn Road, CAMBRIDGE, CAMBRIDGESHIRE, CB1 9NJ GB</v>
-    <v>154.65</v>
+    <v>133.69999999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45604.041527407033</v>
-    <v>139.51</v>
-    <v>157881200000</v>
+    <v>45616.041604756247</v>
+    <v>127.89</v>
+    <v>139446880000</v>
     <v>ARM HOLDINGS PLC</v>
     <v>ARM HOLDINGS PLC</v>
-    <v>140.0001</v>
-    <v>378.61270000000002</v>
-    <v>144.68</v>
-    <v>150.65</v>
-    <v>149.82</v>
+    <v>128.5</v>
+    <v>217.29939999999999</v>
+    <v>128.66</v>
+    <v>133.06</v>
+    <v>133.71</v>
     <v>1048000000</v>
     <v>ARM</v>
     <v>ARM HOLDINGS PLC (XNAS:ARM)</v>
-    <v>16365148</v>
-    <v>5395041</v>
+    <v>4051608</v>
+    <v>6176444</v>
     <v>2018</v>
   </rv>
   <rv s="1">
@@ -2124,9 +2124,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2851,7 +2851,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,14 +2884,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>150.65</v>
+        <v>133.06</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>39.84886420999495</v>
+        <v>35.222753220510228</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2931,21 +2931,21 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.1262999999999994E-2</v>
+        <v>3.4199E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>95.338888888888889</v>
+        <v>84.207053140096619</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="44">
         <f>F17</f>
-        <v>0.41797072185764766</v>
+        <v>0.4182874463248295</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -2979,21 +2979,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>157881200000</v>
+        <v>139446880000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>9.2537933585506056E-3</v>
+        <v>1.0477107842068607E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="44">
         <f>F20</f>
-        <v>0.36875315497223626</v>
+        <v>0.36903258398585503</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -3028,7 +3028,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.036</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.68079325838281002</v>
+        <v>-0.63859540339223153</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3168,7 +3168,7 @@
         <v>3233000000</v>
       </c>
       <c r="F10" s="61">
-        <v>3962000000</v>
+        <v>3959000000</v>
       </c>
       <c r="G10" s="61">
         <v>4915000000</v>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>0.22548716362511589</v>
+        <v>0.22455923291060942</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="0"/>
-        <v>0.24053508329126694</v>
+        <v>0.24147511997979287</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="K11" s="63">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.20611531900585484</v>
+        <v>0.20611774020065873</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>0.41797072185764766</v>
+        <v>0.4182874463248295</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="4"/>
-        <v>0.36875315497223626</v>
+        <v>0.36903258398585503</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" si="4"/>
